--- a/샘플/샘플-학사정보데이터(2022-05-19).xlsx
+++ b/샘플/샘플-학사정보데이터(2022-05-19).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12270" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12270" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보샘플" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="586">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1864,6 +1864,46 @@
   </si>
   <si>
     <t>cf. 영어영문 바꾼거 생각해봐    sheet1 과정 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 만드는법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고구마죽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전복죽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -23804,10 +23844,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23816,103 +23856,199 @@
     <col min="2" max="2" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>472</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>474</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D2" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>475</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E3" t="s">
+        <v>577</v>
+      </c>
+      <c r="F3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>476</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>578</v>
+      </c>
+      <c r="E4" t="s">
+        <v>578</v>
+      </c>
+      <c r="F4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>477</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>478</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>479</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>480</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D8" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>481</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>577</v>
+      </c>
+      <c r="E9" t="s">
+        <v>577</v>
+      </c>
+      <c r="F9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>482</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>578</v>
+      </c>
+      <c r="E10" t="s">
+        <v>578</v>
+      </c>
+      <c r="F10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>483</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>484</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>485</v>
       </c>
@@ -23920,7 +24056,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>486</v>
       </c>
@@ -23928,7 +24064,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>487</v>
       </c>
@@ -23936,7 +24072,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>488</v>
       </c>
@@ -23996,7 +24132,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24085,8 +24221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24358,7 +24494,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>507</v>
       </c>
@@ -24378,7 +24514,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>510</v>
       </c>
@@ -24398,7 +24534,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>513</v>
       </c>
@@ -24418,7 +24554,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>553</v>
       </c>
@@ -24426,7 +24562,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>552</v>
       </c>
@@ -24442,8 +24578,11 @@
       <c r="J37" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>507</v>
       </c>
@@ -24459,8 +24598,11 @@
       <c r="J38" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>507</v>
       </c>
@@ -24476,8 +24618,11 @@
       <c r="J39" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>510</v>
       </c>
@@ -24493,8 +24638,11 @@
       <c r="J40" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>510</v>
       </c>
@@ -24510,8 +24658,11 @@
       <c r="J41" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>510</v>
       </c>
@@ -24527,8 +24678,11 @@
       <c r="J42" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>513</v>
       </c>
@@ -24545,7 +24699,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>513</v>
       </c>
@@ -24573,7 +24727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
